--- a/data/results/quantile/Test_output_2.xlsx
+++ b/data/results/quantile/Test_output_2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2296,16 +2296,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.9074147878852223</v>
+        <v>0.9097393142206728</v>
       </c>
       <c r="C110" t="n">
-        <v>5.127321008145896</v>
+        <v>5.125100163213641</v>
       </c>
       <c r="D110" t="n">
         <v>4.69866052907543</v>
       </c>
       <c r="E110" t="n">
-        <v>0.7459994532021619</v>
+        <v>0.7456807713885475</v>
       </c>
     </row>
     <row r="111">
@@ -2313,16 +2313,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.9117076905545276</v>
+        <v>0.9140130967197728</v>
       </c>
       <c r="C111" t="n">
-        <v>4.913808043331302</v>
+        <v>4.912167862598888</v>
       </c>
       <c r="D111" t="n">
         <v>4.778450998129897</v>
       </c>
       <c r="E111" t="n">
-        <v>0.6483976879673096</v>
+        <v>0.6481213846815328</v>
       </c>
     </row>
     <row r="112">
@@ -2330,16 +2330,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.9149047623771795</v>
+        <v>0.9171792078312532</v>
       </c>
       <c r="C112" t="n">
-        <v>4.69952955272432</v>
+        <v>4.698662920851586</v>
       </c>
       <c r="D112" t="n">
         <v>4.808960854310534</v>
       </c>
       <c r="E112" t="n">
-        <v>0.7011486962015063</v>
+        <v>0.7010769944960776</v>
       </c>
     </row>
     <row r="113">
@@ -2347,16 +2347,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.9170015713859572</v>
+        <v>0.9192348743567391</v>
       </c>
       <c r="C113" t="n">
-        <v>4.552167089116615</v>
+        <v>4.551793435263315</v>
       </c>
       <c r="D113" t="n">
         <v>4.762950174156767</v>
       </c>
       <c r="E113" t="n">
-        <v>0.6988416601016135</v>
+        <v>0.6987975662541381</v>
       </c>
     </row>
     <row r="114">
@@ -2364,16 +2364,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.9183178259919755</v>
+        <v>0.9205016847110346</v>
       </c>
       <c r="C114" t="n">
-        <v>4.542929163397087</v>
+        <v>4.542250474028211</v>
       </c>
       <c r="D114" t="n">
         <v>4.690061087190522</v>
       </c>
       <c r="E114" t="n">
-        <v>0.747864010298694</v>
+        <v>0.7480594512693943</v>
       </c>
     </row>
     <row r="115">
@@ -2381,16 +2381,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.9175276803487291</v>
+        <v>0.919638735765261</v>
       </c>
       <c r="C115" t="n">
-        <v>4.545110070498364</v>
+        <v>4.544595138572957</v>
       </c>
       <c r="D115" t="n">
         <v>4.537329376187067</v>
       </c>
       <c r="E115" t="n">
-        <v>0.7780192114633276</v>
+        <v>0.7783121686527331</v>
       </c>
     </row>
     <row r="116">
@@ -2398,16 +2398,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.9156469858456169</v>
+        <v>0.9176744039965283</v>
       </c>
       <c r="C116" t="n">
-        <v>4.566979609986715</v>
+        <v>4.566944931507162</v>
       </c>
       <c r="D116" t="n">
         <v>4.630585375594274</v>
       </c>
       <c r="E116" t="n">
-        <v>0.8104612661029807</v>
+        <v>0.8106552023746383</v>
       </c>
     </row>
     <row r="117">
@@ -2415,16 +2415,16 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.9142934922718307</v>
+        <v>0.91624454041095</v>
       </c>
       <c r="C117" t="n">
-        <v>4.642871412464794</v>
+        <v>4.642103370766194</v>
       </c>
       <c r="D117" t="n">
         <v>4.728274392604824</v>
       </c>
       <c r="E117" t="n">
-        <v>0.8167755440682387</v>
+        <v>0.8168530423937183</v>
       </c>
     </row>
     <row r="118">
@@ -2432,16 +2432,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.9133862356866274</v>
+        <v>0.9152660189372863</v>
       </c>
       <c r="C118" t="n">
-        <v>4.622337659374351</v>
+        <v>4.621599690813849</v>
       </c>
       <c r="D118" t="n">
         <v>4.714564803703353</v>
       </c>
       <c r="E118" t="n">
-        <v>0.7953825124049585</v>
+        <v>0.7953745889083081</v>
       </c>
     </row>
     <row r="119">
@@ -2449,16 +2449,16 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.9122324628439178</v>
+        <v>0.9140403055213993</v>
       </c>
       <c r="C119" t="n">
-        <v>4.565535700955325</v>
+        <v>4.565310022453509</v>
       </c>
       <c r="D119" t="n">
         <v>4.703895476275147</v>
       </c>
       <c r="E119" t="n">
-        <v>0.8204661315451409</v>
+        <v>0.8205314469203518</v>
       </c>
     </row>
     <row r="120">
@@ -2466,16 +2466,16 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.9132178581665145</v>
+        <v>0.9149789653976548</v>
       </c>
       <c r="C120" t="n">
-        <v>4.517203285939112</v>
+        <v>4.516679303466556</v>
       </c>
       <c r="D120" t="n">
         <v>4.6848574109047</v>
       </c>
       <c r="E120" t="n">
-        <v>0.934185461887949</v>
+        <v>0.9343425702861023</v>
       </c>
     </row>
     <row r="121">
@@ -2483,16 +2483,16 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.9154631880212477</v>
+        <v>0.9171893037998415</v>
       </c>
       <c r="C121" t="n">
-        <v>4.406186143715844</v>
+        <v>4.405674627854438</v>
       </c>
       <c r="D121" t="n">
         <v>4.68518698239476</v>
       </c>
       <c r="E121" t="n">
-        <v>1.18589778358631</v>
+        <v>1.186620610211715</v>
       </c>
     </row>
   </sheetData>
